--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="20640" windowHeight="11310" activeTab="0"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0"/>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" roundtripDataChecksum="cUcPnt0pm+35FYhuyIQyEdxB97OyzvJZbXb6BcpOlZE="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -237,6 +233,48 @@
   </si>
   <si>
     <t>gwaps</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Successfully logged in!</t>
+  </si>
+  <si>
+    <t>Successfully logged out!</t>
   </si>
 </sst>
 </file>
@@ -250,7 +288,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +305,14 @@
       <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -327,194 +373,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -523,7 +390,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="216"/>
+    <cellStyle name="Hyperlink" xfId="34"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -805,13 +672,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.421875" defaultColWidthPt="75.75" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" widthPt="45.75" style="0" customWidth="1"/>
+    <col min="1" max="26" width="8.7109375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
@@ -921,7 +788,7 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>38304</v>
       </c>
       <c r="H3">
@@ -965,7 +832,7 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>43858</v>
       </c>
       <c r="H4">
@@ -984,7 +851,7 @@
         <v>36</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>37</v>
@@ -1009,7 +876,7 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>36557</v>
       </c>
       <c r="H5">
@@ -1053,7 +920,7 @@
       <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>36890</v>
       </c>
       <c r="H6">
@@ -1097,7 +964,7 @@
       <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>37455</v>
       </c>
       <c r="H7">
@@ -1141,7 +1008,7 @@
       <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>36557</v>
       </c>
       <c r="H8">
@@ -1185,7 +1052,7 @@
       <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>36690</v>
       </c>
       <c r="H9">
@@ -1204,7 +1071,7 @@
         <v>66</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
         <v>67</v>
@@ -1229,7 +1096,7 @@
       <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>36564</v>
       </c>
       <c r="H10">
@@ -1248,7 +1115,7 @@
         <v>71</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -2243,14 +2110,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB513307-36C4-47D3-BCEE-4E224F705F95}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36.7109375" style="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45784</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45784.949965277781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45784</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45784.954305555555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45784</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45784.954421296294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45784</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45784.954872685186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45784</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45784.956863425927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45784</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45784.957025462965</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="15">
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="15">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -112,9 +112,6 @@
     <t>gwapa</t>
   </si>
   <si>
-    <t>C:\Users\ninel\Downloads\newwwww\ninel(V2)\profile pics\hani.jpg</t>
-  </si>
-  <si>
     <t>erica</t>
   </si>
   <si>
@@ -130,7 +127,7 @@
     <t>mae</t>
   </si>
   <si>
-    <t>C:\Users\ninel\Downloads\newwwww\ninel(V2)\profile pics\sexi.jpg</t>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\sexi.jpg</t>
   </si>
   <si>
     <t>dk</t>
@@ -139,7 +136,7 @@
     <t>dk@gmail.com</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\newwwww\ninel(V2)\profile pics\elvin.jpg</t>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\elvin.jpg</t>
   </si>
   <si>
     <t>jed</t>
@@ -166,10 +163,10 @@
     <t>jed123</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\newwwww\ninel(V2)\profile pics\jed.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\newwwww\ninel(V2)\profile pics\dk.jpg</t>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\jed.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\dk.jpg</t>
   </si>
   <si>
     <t>rjay</t>
@@ -187,7 +184,7 @@
     <t>rjay123</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\newwwww\ninel(V2)\profile pics\rjay.jpg</t>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\rjay.jpg</t>
   </si>
   <si>
     <t>ram</t>
@@ -202,7 +199,7 @@
     <t>ram123</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\newwwww\ninel(V2)\profile pics\ram.jpg</t>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\ram.jpg</t>
   </si>
   <si>
     <t>edrward</t>
@@ -220,7 +217,7 @@
     <t>edward123</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\newwwww\ninel(V2)\profile pics\edward.jpg</t>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\edward.jpg</t>
   </si>
   <si>
     <t>hon</t>
@@ -235,30 +232,30 @@
     <t>gwaps</t>
   </si>
   <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
     <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
   </si>
   <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Spire.XLS for .NET</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -271,21 +268,46 @@
     <t>Time</t>
   </si>
   <si>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\hani.jpg</t>
+  </si>
+  <si>
     <t>Successfully logged in!</t>
   </si>
   <si>
     <t>Successfully logged out!</t>
+  </si>
+  <si>
+    <t>yrt</t>
+  </si>
+  <si>
+    <t>tyr</t>
+  </si>
+  <si>
+    <t>r@gmail.com</t>
+  </si>
+  <si>
+    <t>drw</t>
+  </si>
+  <si>
+    <t>edq</t>
+  </si>
+  <si>
+    <t>dw</t>
+  </si>
+  <si>
+    <t>Added new user: yrt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="M/d/yyyy"/>
   </numFmts>
   <fonts count="4">
@@ -335,7 +357,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -373,15 +395,170 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="188"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -390,7 +567,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="34"/>
+    <cellStyle name="Hyperlink" xfId="188"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -670,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -763,10 +940,10 @@
         <v>22</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
@@ -810,12 +987,12 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -824,13 +1001,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
         <v>43858</v>
@@ -842,24 +1019,24 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -868,13 +1045,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1">
         <v>36557</v>
@@ -886,39 +1063,39 @@
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>36890</v>
@@ -927,27 +1104,27 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
         <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -956,13 +1133,13 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1">
         <v>37455</v>
@@ -971,42 +1148,42 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
       </c>
       <c r="G8" s="1">
         <v>36557</v>
@@ -1015,27 +1192,27 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1044,13 +1221,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1">
         <v>36690</v>
@@ -1059,33 +1236,33 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
       <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
         <v>65</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>66</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1094,7 +1271,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1">
         <v>36564</v>
@@ -1106,19 +1283,63 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>71</v>
-      </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="5">
+        <v>43865</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -2110,29 +2331,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB513307-36C4-47D3-BCEE-4E224F705F95}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="36.7109375" style="0" customWidth="1"/>
+    <col min="4" max="4" width="11.421875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2142,11 +2364,11 @@
       <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="1">
-        <v>45784</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45784.949965277781</v>
+      <c r="C2" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45785.453379629631</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2156,11 +2378,11 @@
       <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="1">
-        <v>45784</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45784.954305555555</v>
+      <c r="C3" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45785.453969907408</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2170,53 +2392,81 @@
       <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1">
-        <v>45784</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45784.954421296294</v>
+      <c r="C4" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45785.454085648147</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45784</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45784.954872685186</v>
+        <v>84</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45785.454409722224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="4">
-        <v>45784</v>
+      <c r="C6" s="5">
+        <v>45785</v>
       </c>
       <c r="D6" s="4">
-        <v>45784.956863425927</v>
+        <v>45785.454710648148</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45784</v>
+        <v>84</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45785</v>
       </c>
       <c r="D7" s="4">
-        <v>45784.957025462965</v>
+        <v>45785.45516203704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45785.455439814818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45785.456122685187</v>
       </c>
     </row>
   </sheetData>
@@ -2236,22 +2486,22 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="15">
@@ -2261,17 +2511,17 @@
     </row>
     <row r="8" ht="15">
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -127,9 +127,6 @@
     <t>mae</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\sexi.jpg</t>
-  </si>
-  <si>
     <t>dk</t>
   </si>
   <si>
@@ -268,34 +265,61 @@
     <t>Time</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\hani.jpg</t>
+    <t>C:\Users\ninel\Downloads\newwwww\ninel(V2)\profile pics\hani.jpg</t>
+  </si>
+  <si>
+    <t>yrt</t>
+  </si>
+  <si>
+    <t>tyr</t>
+  </si>
+  <si>
+    <t>r@gmail.com</t>
+  </si>
+  <si>
+    <t>drw</t>
+  </si>
+  <si>
+    <t>edq</t>
+  </si>
+  <si>
+    <t>dw</t>
   </si>
   <si>
     <t>Successfully logged in!</t>
   </si>
   <si>
+    <t>yumi</t>
+  </si>
+  <si>
+    <t>korea</t>
+  </si>
+  <si>
+    <t>m@gmail.com</t>
+  </si>
+  <si>
+    <t>yumzyyy</t>
+  </si>
+  <si>
+    <t>yumi123</t>
+  </si>
+  <si>
+    <t>C:\Users\ninel\Downloads\newwwww\ninel(V2)\profile pics\sexi.jpg</t>
+  </si>
+  <si>
+    <t>Added new user: yumi</t>
+  </si>
+  <si>
+    <t>Deleted an active student</t>
+  </si>
+  <si>
+    <t>Deleted an inactive user</t>
+  </si>
+  <si>
     <t>Successfully logged out!</t>
   </si>
   <si>
-    <t>yrt</t>
-  </si>
-  <si>
-    <t>tyr</t>
-  </si>
-  <si>
-    <t>r@gmail.com</t>
-  </si>
-  <si>
-    <t>drw</t>
-  </si>
-  <si>
-    <t>edq</t>
-  </si>
-  <si>
-    <t>dw</t>
-  </si>
-  <si>
-    <t>Added new user: yrt</t>
+    <t>Updated a student</t>
   </si>
 </sst>
 </file>
@@ -357,7 +381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -381,6 +405,202 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -558,7 +778,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="188"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="384"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -567,7 +787,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="188"/>
+    <cellStyle name="Hyperlink" xfId="384"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -847,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -943,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
@@ -987,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
@@ -1031,12 +1251,12 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1051,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1">
         <v>36557</v>
@@ -1066,36 +1286,36 @@
         <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="1">
         <v>36890</v>
@@ -1104,27 +1324,27 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
         <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1133,13 +1353,13 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1">
         <v>37455</v>
@@ -1148,42 +1368,42 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
         <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
       </c>
       <c r="G8" s="1">
         <v>36557</v>
@@ -1192,27 +1412,27 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
         <v>45</v>
       </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1221,13 +1441,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1">
         <v>36690</v>
@@ -1236,33 +1456,33 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
         <v>45</v>
       </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
       <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1271,7 +1491,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1">
         <v>36564</v>
@@ -1283,24 +1503,24 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
         <v>69</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>70</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1309,15 +1529,15 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="5">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1">
         <v>43865</v>
       </c>
       <c r="H11">
@@ -1327,19 +1547,63 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="L11" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="M11">
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="5">
+        <v>36557</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>49</v>
+      <c r="N12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -2331,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB513307-36C4-47D3-BCEE-4E224F705F95}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2345,16 +2609,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2362,13 +2626,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5">
         <v>45785</v>
       </c>
       <c r="D2" s="4">
-        <v>45785.453379629631</v>
+        <v>45785.898657407408</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2376,27 +2640,27 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5">
         <v>45785</v>
       </c>
       <c r="D3" s="4">
-        <v>45785.453969907408</v>
+        <v>45785.899907407409</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5">
         <v>45785</v>
       </c>
       <c r="D4" s="4">
-        <v>45785.454085648147</v>
+        <v>45785.900972222225</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -2404,13 +2668,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5">
         <v>45785</v>
       </c>
       <c r="D5" s="4">
-        <v>45785.454409722224</v>
+        <v>45785.90121527778</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -2418,13 +2682,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C6" s="5">
         <v>45785</v>
       </c>
       <c r="D6" s="4">
-        <v>45785.454710648148</v>
+        <v>45785.901446759257</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -2432,13 +2696,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5">
         <v>45785</v>
       </c>
       <c r="D7" s="4">
-        <v>45785.45516203704</v>
+        <v>45785.901886574073</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -2446,13 +2710,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5">
         <v>45785</v>
       </c>
       <c r="D8" s="4">
-        <v>45785.455439814818</v>
+        <v>45785.902488425927</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -2460,13 +2724,153 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5">
         <v>45785</v>
       </c>
       <c r="D9" s="4">
-        <v>45785.456122685187</v>
+        <v>45785.903923611113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45785.904629629629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45785.9056712963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45785.9068287037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45785.908217592594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45785.90896990741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45785.909456018519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45785.9096875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45785.909884259258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45785.921666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45785</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45785.922233796293</v>
       </c>
     </row>
   </sheetData>
@@ -2486,42 +2890,42 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -381,7 +381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="385">
+  <cellStyleXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -405,6 +405,34 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,7 +806,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="384"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="412"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -787,7 +815,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="384"/>
+    <cellStyle name="Hyperlink" xfId="412"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2595,7 +2623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB513307-36C4-47D3-BCEE-4E224F705F95}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="A2" sqref="A2:XFD9"/>
@@ -2871,6 +2899,34 @@
       </c>
       <c r="D19" s="4">
         <v>45785.922233796293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45790</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45790.371168981481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45790</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45790.371423611112</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="101">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -229,30 +229,30 @@
     <t>gwaps</t>
   </si>
   <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
     <t>Spire.XLS for .NET</t>
   </si>
   <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -265,9 +265,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>C:\Users\ninel\Downloads\newwwww\ninel(V2)\profile pics\hani.jpg</t>
-  </si>
-  <si>
     <t>yrt</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>yumi123</t>
   </si>
   <si>
-    <t>C:\Users\ninel\Downloads\newwwww\ninel(V2)\profile pics\sexi.jpg</t>
-  </si>
-  <si>
     <t>Added new user: yumi</t>
   </si>
   <si>
@@ -320,6 +314,12 @@
   </si>
   <si>
     <t>Updated a student</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\hani.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\source\repos\ninel\profile pics\sexi.jpg</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="413">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -419,384 +419,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -806,7 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="412"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -815,7 +437,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="412"/>
+    <cellStyle name="Hyperlink" xfId="34"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1188,7 +810,7 @@
         <v>22</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>38</v>
@@ -1235,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
@@ -1279,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
@@ -1543,12 +1165,12 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1557,13 +1179,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="1">
         <v>43865</v>
@@ -1575,24 +1197,24 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
         <v>86</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>87</v>
       </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1601,15 +1223,15 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="5">
+        <v>91</v>
+      </c>
+      <c r="G12" s="1">
         <v>36557</v>
       </c>
       <c r="H12">
@@ -1619,19 +1241,19 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
         <v>93</v>
       </c>
-      <c r="K12" t="s">
-        <v>94</v>
-      </c>
       <c r="L12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -2623,15 +2245,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB513307-36C4-47D3-BCEE-4E224F705F95}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" style="0" customWidth="1"/>
+    <col min="2" max="2" width="51.421875" style="0" customWidth="1"/>
     <col min="4" max="4" width="11.421875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2654,9 +2276,9 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="5">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1">
         <v>45785</v>
       </c>
       <c r="D2" s="4">
@@ -2668,9 +2290,9 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="5">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1">
         <v>45785</v>
       </c>
       <c r="D3" s="4">
@@ -2682,9 +2304,9 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="5">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1">
         <v>45785</v>
       </c>
       <c r="D4" s="4">
@@ -2696,9 +2318,9 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="5">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1">
         <v>45785</v>
       </c>
       <c r="D5" s="4">
@@ -2710,9 +2332,9 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="5">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1">
         <v>45785</v>
       </c>
       <c r="D6" s="4">
@@ -2724,9 +2346,9 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="5">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1">
         <v>45785</v>
       </c>
       <c r="D7" s="4">
@@ -2738,9 +2360,9 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="5">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1">
         <v>45785</v>
       </c>
       <c r="D8" s="4">
@@ -2752,9 +2374,9 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="5">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1">
         <v>45785</v>
       </c>
       <c r="D9" s="4">
@@ -2766,9 +2388,9 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="5">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1">
         <v>45785</v>
       </c>
       <c r="D10" s="4">
@@ -2780,9 +2402,9 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="5">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1">
         <v>45785</v>
       </c>
       <c r="D11" s="4">
@@ -2794,9 +2416,9 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="5">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1">
         <v>45785</v>
       </c>
       <c r="D12" s="4">
@@ -2808,9 +2430,9 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="5">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1">
         <v>45785</v>
       </c>
       <c r="D13" s="4">
@@ -2822,9 +2444,9 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="5">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1">
         <v>45785</v>
       </c>
       <c r="D14" s="4">
@@ -2836,9 +2458,9 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="5">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1">
         <v>45785</v>
       </c>
       <c r="D15" s="4">
@@ -2850,9 +2472,9 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1">
         <v>45785</v>
       </c>
       <c r="D16" s="4">
@@ -2864,9 +2486,9 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="5">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1">
         <v>45785</v>
       </c>
       <c r="D17" s="4">
@@ -2878,9 +2500,9 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="5">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1">
         <v>45785</v>
       </c>
       <c r="D18" s="4">
@@ -2892,9 +2514,9 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="5">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1">
         <v>45785</v>
       </c>
       <c r="D19" s="4">
@@ -2906,9 +2528,9 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="5">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1">
         <v>45790</v>
       </c>
       <c r="D20" s="4">
@@ -2920,13 +2542,349 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="5">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1">
         <v>45790</v>
       </c>
       <c r="D21" s="4">
         <v>45790.371423611112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45791.4219212963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45791.422476851854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45791.42255787037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45791.422650462962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45791.422731481478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45791.422824074078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45791.42291666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45791.423032407409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45791.423229166663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45791.423321759263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45791.423564814817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45791.423819444448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45791.424004629633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45791.425555555557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45791.42633101852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45791.428136574075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45791.428553240738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45791.430555555555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45791.430949074071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45791.431458333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45791.433275462965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45791</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45791.443032407406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45791</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45791.444861111115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45791</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45791.453101851854</v>
       </c>
     </row>
   </sheetData>
@@ -2946,42 +2904,42 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -381,7 +381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -405,6 +405,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,7 +442,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -437,7 +451,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="34"/>
+    <cellStyle name="Hyperlink" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2245,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB513307-36C4-47D3-BCEE-4E224F705F95}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="I4" sqref="I4"/>
@@ -2885,6 +2899,20 @@
       </c>
       <c r="D45" s="4">
         <v>45791.453101851854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45791</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45791.454293981478</v>
       </c>
     </row>
   </sheetData>
